--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Catalogos/Molinos.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Catalogos/Molinos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\Catalogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C51898E-FF9E-454C-8533-C753D295F4E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3237106F-41FE-4EA3-827C-5539755BE982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C7CB5CF0-0CC3-41AE-887E-E42A35BB26A3}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>Modelo</t>
   </si>
@@ -97,6 +99,42 @@
   </si>
   <si>
     <t>R20-AT</t>
+  </si>
+  <si>
+    <t>Trapiche N 16</t>
+  </si>
+  <si>
+    <t>Guarapero N 18</t>
+  </si>
+  <si>
+    <t>Trapiche JM/2</t>
+  </si>
+  <si>
+    <t>Trapiche JM/4</t>
+  </si>
+  <si>
+    <t>Trapiche N 14</t>
+  </si>
+  <si>
+    <t>Trapiche 4D</t>
+  </si>
+  <si>
+    <t>JM Estrada</t>
+  </si>
+  <si>
+    <t>Trapiche 3D</t>
+  </si>
+  <si>
+    <t>Trapiche 11D</t>
+  </si>
+  <si>
+    <t>Trapiche 10 1/2</t>
+  </si>
+  <si>
+    <t>Trapiche 10D</t>
+  </si>
+  <si>
+    <t>Trapiche 9D</t>
   </si>
 </sst>
 </file>
@@ -106,10 +144,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -471,15 +515,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BE17DE-6B86-41C6-B305-F04DE90BFC6B}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -826,22 +871,229 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2">
+        <v>100</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <v>250</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2">
+        <v>350</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2">
+        <v>600</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2">
+        <v>900</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D19" s="2">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D20" s="2">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2">
+        <v>16</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1600</v>
+      </c>
+      <c r="D21" s="2">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2">
+        <v>18</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D22" s="2">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2">
+        <v>18</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2300</v>
+      </c>
+      <c r="D23" s="2">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2600</v>
+      </c>
+      <c r="D24" s="2">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2">
+        <v>30</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
